--- a/data/metrics_120_months_before_covid.xlsx
+++ b/data/metrics_120_months_before_covid.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.71521489885543</v>
+        <v>13.90949261935522</v>
       </c>
       <c r="C2" t="n">
-        <v>25.23498026605721</v>
+        <v>23.84257251712773</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5807500043329817</v>
+        <v>0.5808724125471856</v>
       </c>
       <c r="E2" t="n">
-        <v>0.869032388496376</v>
+        <v>1.070126019124857</v>
       </c>
       <c r="F2" t="n">
-        <v>7.171862750528754</v>
+        <v>7.077160381832315</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.34708097561643</v>
+        <v>12.47492109345336</v>
       </c>
       <c r="C3" t="n">
-        <v>19.64771690439941</v>
+        <v>18.27046271825304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6253694022263303</v>
+        <v>0.6795077543958578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8942677558983143</v>
+        <v>1.174826161918675</v>
       </c>
       <c r="F3" t="n">
-        <v>5.871139816825048</v>
+        <v>5.747076404695129</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.83257239056803</v>
+        <v>11.13331018869496</v>
       </c>
       <c r="C4" t="n">
-        <v>15.80260535824584</v>
+        <v>14.2105713162964</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6816959701488</v>
+        <v>0.7792304716135031</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9831246926594257</v>
+        <v>1.36681778862738</v>
       </c>
       <c r="F4" t="n">
-        <v>4.995956969216855</v>
+        <v>4.820984854866849</v>
       </c>
     </row>
   </sheetData>
